--- a/docs/oncocore-CancerStagePanelMember.xlsx
+++ b/docs/oncocore-CancerStagePanelMember.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -423,86 +423,20 @@
     <t>open</t>
   </si>
   <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Recorder-extension]]} {[]}
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The recorder of the information, if other than the information originator. For example, the nurse taking a list of medications reported by the patient.</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The entity this condition or observation relates to, for example, a related person. The Focus is only required if the person or thing observed is different than the patient. Focus should not be an anatomical location. Examples: The focus for cancer progression would be the cancer condition; for wound length, an instance of a wound (a condition).</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-DomainResource]]}
-CodeableConcept {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>Cancer condition this information relates to.</t>
   </si>
   <si>
     <t>cancerstagetiming</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -625,7 +559,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -655,7 +589,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-encounter-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -729,7 +663,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Practitioner], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Organization], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -831,6 +765,10 @@
     <t>Observation.comments</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Comments about result</t>
   </si>
   <si>
@@ -970,7 +908,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1184,7 +1122,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1435,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1444,44 +1382,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.37890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="26.15625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.15625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="26.734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="128.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="124.46875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3272,7 +3210,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
@@ -3372,34 +3310,36 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3447,15 +3387,11 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG19" s="2"/>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3474,7 +3410,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3485,7 +3421,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3497,7 +3433,7 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>141</v>
@@ -3506,7 +3442,9 @@
         <v>142</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3553,15 +3491,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3569,18 +3503,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>42</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3597,28 +3531,30 @@
         <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>42</v>
@@ -3636,13 +3572,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3659,15 +3595,11 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3675,18 +3607,18 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3694,7 +3626,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3709,15 +3641,17 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3742,13 +3676,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3765,15 +3699,11 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3784,19 +3714,17 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3814,17 +3742,21 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3848,13 +3780,13 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3871,15 +3803,11 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3887,52 +3815,54 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I24" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3979,11 +3909,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3991,18 +3925,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4013,7 +3947,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4025,17 +3959,17 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4095,18 +4029,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4114,7 +4048,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
@@ -4123,23 +4057,25 @@
         <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4164,13 +4100,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4199,18 +4135,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4230,19 +4166,19 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4268,13 +4204,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4303,18 +4239,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4322,10 +4258,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4337,17 +4273,17 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4372,13 +4308,13 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4407,18 +4343,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4441,19 +4377,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4513,18 +4449,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>202</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4547,17 +4483,19 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4582,13 +4520,11 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4611,28 +4547,28 @@
       </c>
       <c r="AG30" s="2"/>
       <c r="AH30" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4648,22 +4584,20 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4688,13 +4622,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4723,18 +4657,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4754,21 +4688,21 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4827,18 +4761,18 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>226</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4849,7 +4783,7 @@
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4858,20 +4792,22 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4896,13 +4832,11 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4920,13 +4854,13 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
@@ -4935,18 +4869,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4966,23 +4900,19 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5041,10 +4971,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5052,18 +4982,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5075,20 +5005,18 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5112,11 +5040,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5139,16 +5069,16 @@
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5156,18 +5086,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5176,20 +5106,22 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5214,13 +5146,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5249,10 +5181,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5260,7 +5192,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5280,20 +5212,22 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5353,10 +5287,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5364,7 +5298,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5375,7 +5309,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5387,19 +5321,19 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5424,11 +5358,11 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5445,15 +5379,11 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5461,10 +5391,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5472,7 +5402,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5483,7 +5413,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5495,15 +5425,17 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5551,11 +5483,15 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5563,10 +5499,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5574,18 +5510,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5597,16 +5533,16 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5655,11 +5591,15 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5667,10 +5607,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5678,7 +5618,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5689,7 +5629,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5698,22 +5638,22 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5761,22 +5701,26 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5784,7 +5728,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5804,23 +5748,19 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5879,10 +5819,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5890,18 +5830,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -5913,20 +5853,18 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -5950,11 +5888,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -5983,10 +5923,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -5994,39 +5934,39 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>300</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
+        <v>70</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6075,15 +6015,11 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6091,10 +6027,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6102,7 +6038,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6113,7 +6049,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6125,17 +6061,15 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M45" t="s" s="2">
         <v>309</v>
       </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6183,26 +6117,22 @@
       <c r="AD45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6210,7 +6140,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6221,7 +6151,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6233,7 +6163,7 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>314</v>
@@ -6241,12 +6171,8 @@
       <c r="L46" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6293,26 +6219,22 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6320,7 +6242,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6343,16 +6265,20 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6376,13 +6302,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6411,10 +6337,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6422,18 +6348,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6445,18 +6371,18 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6518,7 +6444,7 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>64</v>
+        <v>330</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6526,40 +6452,38 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6619,10 +6543,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6630,7 +6554,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6641,7 +6565,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6650,19 +6574,23 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6709,22 +6637,26 @@
       <c r="AD50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH50" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6732,7 +6664,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6755,13 +6687,13 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6817,16 +6749,16 @@
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6834,18 +6766,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6857,20 +6789,18 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
+        <v>69</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -6894,13 +6824,13 @@
         <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -6929,10 +6859,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6940,41 +6870,41 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>346</v>
+        <v>67</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7036,7 +6966,7 @@
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7044,7 +6974,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7067,22 +6997,26 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>42</v>
@@ -7100,13 +7034,13 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7135,10 +7069,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>331</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7146,7 +7080,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7154,10 +7088,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7166,10 +7100,10 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>356</v>
@@ -7177,12 +7111,8 @@
       <c r="L55" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7229,15 +7159,11 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="AE55" s="2"/>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG55" s="2"/>
       <c r="AH55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7245,10 +7171,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7256,7 +7182,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7267,7 +7193,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7276,19 +7202,23 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>62</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7335,11 +7265,15 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7347,10 +7281,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7358,18 +7292,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7381,17 +7315,15 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7462,11 +7394,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>324</v>
+        <v>66</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7479,7 +7411,7 @@
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>42</v>
@@ -7488,10 +7420,10 @@
         <v>67</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>70</v>
@@ -7558,7 +7490,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7566,49 +7498,47 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>366</v>
+        <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>42</v>
@@ -7626,13 +7556,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7661,10 +7591,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7672,7 +7602,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7692,19 +7622,21 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>375</v>
+        <v>156</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7728,13 +7660,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7757,24 +7689,24 @@
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>378</v>
+        <v>171</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7785,7 +7717,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7797,19 +7729,19 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>216</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>382</v>
+        <v>218</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -7857,15 +7789,11 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7873,10 +7801,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>384</v>
+        <v>220</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7884,7 +7812,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7907,16 +7835,20 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -7940,13 +7872,11 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -7969,16 +7899,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -7986,11 +7916,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8009,18 +7939,20 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8079,10 +8011,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8090,40 +8022,38 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8186,7 +8116,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8194,18 +8124,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -8214,21 +8144,21 @@
         <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>389</v>
+        <v>68</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8252,13 +8182,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8281,60 +8211,58 @@
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" t="s" s="2">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>393</v>
+        <v>67</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>394</v>
+        <v>137</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8393,10 +8321,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>241</v>
+        <v>125</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8404,7 +8332,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8427,20 +8355,16 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8464,11 +8388,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8491,16 +8417,16 @@
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8508,7 +8434,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8519,7 +8445,7 @@
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8531,20 +8457,16 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8597,16 +8519,16 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8614,7 +8536,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8637,16 +8559,20 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8670,13 +8596,13 @@
         <v>42</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>42</v>
@@ -8705,10 +8631,10 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8716,18 +8642,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -8739,18 +8665,18 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8812,7 +8738,7 @@
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>64</v>
+        <v>330</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8820,40 +8746,38 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -8913,533 +8837,17 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" s="2"/>
-      <c r="AH72" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AL76" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL76">
+  <autoFilter ref="A1:AL71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9449,7 +8857,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
